--- a/testing_results.xlsx
+++ b/testing_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\COLLEGE\3RD YR\2ND TERM\LBYARCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C822923-B788-4E6F-B632-3A22ED23A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43474070-6006-43F5-9B60-2420EAA0D376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="996" windowWidth="12612" windowHeight="8964" xr2:uid="{5B8C83E8-A740-4D8D-972C-141E9B0EBAA5}"/>
+    <workbookView xWindow="10896" yWindow="48" windowWidth="12108" windowHeight="8964" xr2:uid="{5B8C83E8-A740-4D8D-972C-141E9B0EBAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,6 +424,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,33 +481,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,7 +798,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,238 +807,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B4" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E4" s="3">
-        <v>0.66800000000000004</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="F4" s="4">
-        <v>0.66400000000000003</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="G4" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H4" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I4" s="3">
-        <v>3.6999999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J4" s="4">
-        <v>0.04</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K4" s="3">
-        <v>0.63700000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="L4" s="4">
-        <v>0.78800000000000003</v>
+        <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.307</v>
+      </c>
+      <c r="G5" s="1">
         <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H5" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J5" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K5" s="1">
-        <v>0.749</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="L5" s="2">
-        <v>0.70299999999999996</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.64500000000000002</v>
+        <v>0.745</v>
       </c>
       <c r="F6" s="2">
-        <v>0.67600000000000005</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H6" s="2">
         <v>2E-3</v>
       </c>
       <c r="I6" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J6" s="2">
-        <v>7.0999999999999994E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="K6" s="1">
-        <v>0.68899999999999995</v>
+        <v>0.375</v>
       </c>
       <c r="L6" s="2">
-        <v>0.69799999999999995</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B7" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.61099999999999999</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="F7" s="2">
-        <v>0.63400000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="G7" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H7" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>0.67200000000000004</v>
+        <v>0.377</v>
       </c>
       <c r="L7" s="2">
-        <v>0.66200000000000003</v>
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1046,75 +1046,75 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B8" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>0.61699999999999999</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="F8" s="2">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G8" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H8" s="2">
-        <v>8.9999999999999993E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>0.68300000000000005</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="L8" s="2">
-        <v>0.65300000000000002</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>2E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="B9" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>8.1000000000000003E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.65300000000000002</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="F9" s="2">
-        <v>0.74099999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="G9" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H9" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I9" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K9" s="1">
-        <v>0.58799999999999997</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="L9" s="2">
-        <v>0.61699999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1122,113 +1122,113 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H10" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
       <c r="I10" s="1">
-        <v>0.05</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="K10" s="1">
-        <v>0.65100000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="L10" s="2">
-        <v>0.629</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="B11" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>5.1999999999999998E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.77</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="F11" s="2">
-        <v>0.8</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="G11" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H11" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I11" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K11" s="1">
-        <v>0.77400000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="L11" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B12" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>0.13700000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>0.13800000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.63</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="F12" s="2">
-        <v>0.66300000000000003</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="G12" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H12" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I12" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J12" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K12" s="1">
-        <v>0.72</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="L12" s="2">
-        <v>0.68700000000000006</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1236,75 +1236,75 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B13" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.08</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.61099999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="F13" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G13" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H13" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I13" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="K13" s="1">
-        <v>0.66800000000000004</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="L13" s="2">
-        <v>0.63500000000000001</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G14" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="B14" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
       <c r="H14" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I14" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J14" s="2">
-        <v>0.05</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K14" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="L14" s="2">
-        <v>0.75600000000000001</v>
+        <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1312,151 +1312,151 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B15" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>0.69599999999999995</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>0.746</v>
+        <v>0.36</v>
       </c>
       <c r="G15" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H15" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I15" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J15" s="2">
-        <v>4.7E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K15" s="1">
-        <v>0.63600000000000001</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="L15" s="2">
-        <v>0.75600000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B16" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.64700000000000002</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>0.68</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="G16" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H16" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I16" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K16" s="1">
-        <v>0.64300000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="L16" s="2">
-        <v>0.627</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B17" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>0.11799999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="D17" s="2">
-        <v>0.153</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>0.64100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="F17" s="2">
-        <v>0.68899999999999995</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="G17" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H17" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I17" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K17" s="1">
-        <v>0.64</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="L17" s="2">
-        <v>0.61799999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B18" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>5.8999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.60599999999999998</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>0.67700000000000005</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="G18" s="1">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="H18" s="2">
-        <v>8.9999999999999993E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I18" s="1">
-        <v>4.7E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="K18" s="1">
-        <v>0.59599999999999997</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="L18" s="2">
-        <v>0.61899999999999999</v>
+        <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1464,189 +1464,189 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="B19" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>0.12</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>0.151</v>
+        <v>0.02</v>
       </c>
       <c r="E19" s="1">
-        <v>0.69199999999999995</v>
+        <v>0.77</v>
       </c>
       <c r="F19" s="2">
-        <v>0.68200000000000005</v>
+        <v>0.315</v>
       </c>
       <c r="G19" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H19" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I19" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K19" s="1">
-        <v>0.59499999999999997</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="L19" s="2">
-        <v>0.621</v>
+        <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B20" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C20" s="1">
-        <v>7.8E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>7.1999999999999995E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.61899999999999999</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="G20" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H20" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I20" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J20" s="2">
-        <v>6.0999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="K20" s="1">
-        <v>0.59199999999999997</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="L20" s="2">
-        <v>0.622</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B21" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>0.72699999999999998</v>
+        <v>0.753</v>
       </c>
       <c r="F21" s="2">
-        <v>0.68400000000000005</v>
+        <v>0.318</v>
       </c>
       <c r="G21" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H21" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I21" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J21" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K21" s="1">
-        <v>0.625</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="L21" s="2">
-        <v>0.60699999999999998</v>
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B22" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C22" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>0.125</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.62</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>0.71299999999999997</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="G22" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H22" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I22" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J22" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K22" s="1">
-        <v>0.57799999999999996</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="L22" s="2">
-        <v>0.63300000000000001</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>2E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="B23" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C23" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D23" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>0.85499999999999998</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="F23" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G23" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H23" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I23" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="J23" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K23" s="1">
-        <v>0.61399999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="L23" s="2">
-        <v>0.621</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1657,110 +1657,110 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C24" s="1">
-        <v>6.2E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D24" s="2">
-        <v>5.5E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>0.73699999999999999</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F24" s="2">
-        <v>0.69899999999999995</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="G24" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H24" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I24" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J24" s="2">
-        <v>3.9E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K24" s="1">
-        <v>0.63500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="L24" s="2">
-        <v>0.64700000000000002</v>
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B25" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C25" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>0.108</v>
+        <v>0.02</v>
       </c>
       <c r="E25" s="1">
-        <v>0.61799999999999999</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F25" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G25" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H25" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I25" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J25" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K25" s="1">
-        <v>0.67700000000000005</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="L25" s="2">
-        <v>0.70899999999999996</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B26" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C26" s="1">
-        <v>6.3E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>0.64400000000000002</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F26" s="2">
-        <v>0.65100000000000002</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="G26" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H26" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I26" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J26" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K26" s="1">
-        <v>0.60499999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="L26" s="2">
-        <v>0.67300000000000004</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1768,209 +1768,209 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="B27" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C27" s="1">
-        <v>1.3100000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D27" s="2">
-        <v>1.35E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>0.65900000000000003</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="F27" s="2">
-        <v>0.70099999999999996</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="G27" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H27" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I27" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J27" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="K27" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="L27" s="2">
-        <v>0.64600000000000002</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="B28" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C28" s="1">
-        <v>0.11</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D28" s="2">
-        <v>0.13900000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>0.89900000000000002</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="F28" s="2">
-        <v>0.77800000000000002</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="G28" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H28" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I28" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J28" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K28" s="1">
-        <v>0.58199999999999996</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="L28" s="2">
-        <v>0.63</v>
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B29" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C29" s="1">
-        <v>0.08</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D29" s="2">
-        <v>7.2999999999999995E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E29" s="1">
-        <v>0.745</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="F29" s="2">
-        <v>0.70099999999999996</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="G29" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H29" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I29" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J29" s="2">
-        <v>3.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K29" s="1">
-        <v>0.627</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="L29" s="2">
-        <v>0.68</v>
+        <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B30" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C30" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D30" s="2">
-        <v>5.5E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>0.80800000000000005</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F30" s="2">
-        <v>0.79300000000000004</v>
+        <v>0.309</v>
       </c>
       <c r="G30" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H30" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I30" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J30" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K30" s="1">
-        <v>0.60199999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="L30" s="2">
-        <v>0.61799999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="B31" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C31" s="1">
-        <v>0.115</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D31" s="2">
-        <v>0.11899999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>0.61499999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="F31" s="2">
-        <v>0.72199999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="G31" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H31" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I31" s="1">
-        <v>0.05</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="K31" s="1">
-        <v>0.60499999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="L31" s="2">
-        <v>0.63400000000000001</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="B32" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C32" s="1">
-        <v>0.126</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D32" s="2">
-        <v>0.151</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>0.626</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="F32" s="2">
-        <v>0.71199999999999997</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="G32" s="1">
         <v>2E-3</v>
@@ -1979,106 +1979,106 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I32" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J32" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K32" s="1">
-        <v>0.60099999999999998</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="L32" s="2">
-        <v>0.60699999999999998</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+      <c r="A33" s="12">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="B33" s="28">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C33" s="27">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D33" s="28">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E33" s="27">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="F33" s="28">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="G33" s="27">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H33" s="28">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I33" s="27">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J33" s="28">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K33" s="27">
-        <v>0.61</v>
-      </c>
-      <c r="L33" s="28">
-        <v>0.65100000000000002</v>
+      <c r="B33" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C33" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="I33" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J33" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29">
+      <c r="A34" s="14">
         <f>AVERAGE(A4:A33)</f>
-        <v>3.4000000000000015E-3</v>
-      </c>
-      <c r="B34" s="29">
+        <v>4.7333333333333351E-3</v>
+      </c>
+      <c r="B34" s="14">
         <f t="shared" ref="B34:L34" si="0">AVERAGE(B4:B33)</f>
-        <v>3.5000000000000014E-3</v>
-      </c>
-      <c r="C34" s="29">
+        <v>2.2666666666666677E-3</v>
+      </c>
+      <c r="C34" s="14">
         <f t="shared" si="0"/>
-        <v>7.417E-2</v>
-      </c>
-      <c r="D34" s="29">
+        <v>4.7933333333333335E-2</v>
+      </c>
+      <c r="D34" s="14">
         <f t="shared" si="0"/>
-        <v>7.9183333333333356E-2</v>
-      </c>
-      <c r="E34" s="29">
+        <v>2.003333333333334E-2</v>
+      </c>
+      <c r="E34" s="14">
         <f t="shared" si="0"/>
-        <v>0.68513333333333326</v>
-      </c>
-      <c r="F34" s="29">
+        <v>0.7513333333333333</v>
+      </c>
+      <c r="F34" s="14">
         <f t="shared" si="0"/>
-        <v>0.70059999999999989</v>
-      </c>
-      <c r="G34" s="29">
+        <v>0.32146666666666662</v>
+      </c>
+      <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>4.4666666666666683E-3</v>
-      </c>
-      <c r="H34" s="29">
+        <v>1.7666666666666673E-3</v>
+      </c>
+      <c r="H34" s="14">
         <f t="shared" si="0"/>
-        <v>4.2666666666666677E-3</v>
-      </c>
-      <c r="I34" s="29">
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="I34" s="14">
         <f t="shared" si="0"/>
-        <v>4.5900000000000017E-2</v>
-      </c>
-      <c r="J34" s="29">
+        <v>2.1866666666666677E-2</v>
+      </c>
+      <c r="J34" s="14">
         <f t="shared" si="0"/>
-        <v>4.5433333333333333E-2</v>
-      </c>
-      <c r="K34" s="29">
+        <v>1.9933333333333341E-2</v>
+      </c>
+      <c r="K34" s="14">
         <f t="shared" si="0"/>
-        <v>0.63679999999999992</v>
-      </c>
-      <c r="L34" s="29">
+        <v>0.3464000000000001</v>
+      </c>
+      <c r="L34" s="14">
         <f t="shared" si="0"/>
-        <v>0.65680000000000005</v>
-      </c>
-      <c r="M34" s="29" t="s">
+        <v>0.29569999999999996</v>
+      </c>
+      <c r="M34" s="14" t="s">
         <v>6</v>
       </c>
     </row>
